--- a/database/data_already_added/2020-01-06/Politou_1993_tbl4.xlsx
+++ b/database/data_already_added/2020-01-06/Politou_1993_tbl4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_already_added\2020-01-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{386A1FFA-CF57-4F88-9D18-DCEAB1E14FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F60088-68B9-4848-AADB-45E43CA125BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2052" yWindow="5148" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,18 +647,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AZ1" sqref="AZ1:BB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>60</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="AY4" s="2"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>60</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="AY5" s="2"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
